--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>code</t>
   </si>
@@ -43,24 +43,42 @@
     <t>remark</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2023-02-23 16:55:16</t>
+  </si>
+  <si>
+    <t>2023-02-23 20:19:15</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>2023-02-23 17:35:36</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>cc</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>2023-02-22 21:03:58</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>cp1</t>
   </si>
   <si>
@@ -80,6 +98,36 @@
   </si>
   <si>
     <t>平元</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2023-03-01 17:55:29</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>2023-03-01 19:17:13</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>2023-03-01 19:27:09</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>2023-03-01 19:34:12</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>2023-03-01 19:36:17</t>
   </si>
   <si>
     <t>JPY</t>
@@ -410,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,144 +509,144 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -612,22 +660,225 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>code</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>2023-03-01 19:36:17</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>2023-03-01 23:05:52</t>
   </si>
   <si>
     <t>JPY</t>
@@ -458,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,25 +834,25 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -854,30 +860,59 @@
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>18</v>
       </c>
     </row>
